--- a/AXX CARE/2025-02/AXX CARE - fevereiro.xlsx
+++ b/AXX CARE/2025-02/AXX CARE - fevereiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.missiba\Desktop\projetoalocama\AXX CARE\2025-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AE58DE-C73D-4E7E-887A-CF5D4A2CAA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4DEBCE-9A55-43F5-B694-6FB7105B90E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11304,13 +11304,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y2248"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A2221" workbookViewId="0">
+      <selection activeCell="Y2232" sqref="Y2232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="6" customWidth="1"/>
+    <col min="1" max="22" width="6" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="25" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
